--- a/data-raw/data-tidy/tech-yearbook/part08-output/04-teckmarket-push/funds-2000.xlsx
+++ b/data-raw/data-tidy/tech-yearbook/part08-output/04-teckmarket-push/funds-2000.xlsx
@@ -500,7 +500,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>6.1012</v>
+        <v>61012</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -520,7 +520,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>140.2871</v>
+        <v>1402871</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -540,7 +540,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>17.2601</v>
+        <v>172601</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -560,7 +560,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>2.6413</v>
+        <v>26413</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -580,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>48.2104</v>
+        <v>482104</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -600,7 +600,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>1.7741</v>
+        <v>17741</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -620,7 +620,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>0.062</v>
+        <v>620</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -658,7 +658,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>9.4143</v>
+        <v>94143</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -678,7 +678,7 @@
         <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>21.1621</v>
+        <v>211621</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -698,7 +698,7 @@
         <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>15.2382</v>
+        <v>152382</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -718,7 +718,7 @@
         <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>27.6</v>
+        <v>276000</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -738,7 +738,7 @@
         <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>28.6833</v>
+        <v>286833</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -758,7 +758,7 @@
         <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>7.139</v>
+        <v>71390</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -778,7 +778,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>44.9568</v>
+        <v>449568</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -798,7 +798,7 @@
         <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>6.9299</v>
+        <v>69299</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -818,7 +818,7 @@
         <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>34.7817</v>
+        <v>347817</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -838,7 +838,7 @@
         <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>6.0287</v>
+        <v>60287</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -858,7 +858,7 @@
         <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6402</v>
+        <v>6402</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -896,7 +896,7 @@
         <v>8</v>
       </c>
       <c r="D22" t="n">
-        <v>650.7519</v>
+        <v>6507519</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -916,7 +916,7 @@
         <v>8</v>
       </c>
       <c r="D23" t="n">
-        <v>28.8135</v>
+        <v>288135</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -936,7 +936,7 @@
         <v>8</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5258</v>
+        <v>5258</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -956,7 +956,7 @@
         <v>8</v>
       </c>
       <c r="D25" t="n">
-        <v>9.256</v>
+        <v>92560</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -976,7 +976,7 @@
         <v>8</v>
       </c>
       <c r="D26" t="n">
-        <v>73.8952</v>
+        <v>738952</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -996,7 +996,7 @@
         <v>8</v>
       </c>
       <c r="D27" t="n">
-        <v>10.415</v>
+        <v>104150</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -1016,7 +1016,7 @@
         <v>8</v>
       </c>
       <c r="D28" t="n">
-        <v>26.2581</v>
+        <v>262581</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -1054,7 +1054,7 @@
         <v>8</v>
       </c>
       <c r="D30" t="n">
-        <v>6.6168</v>
+        <v>66168</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -1074,7 +1074,7 @@
         <v>8</v>
       </c>
       <c r="D31" t="n">
-        <v>18.7742</v>
+        <v>187742</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
@@ -1094,7 +1094,7 @@
         <v>8</v>
       </c>
       <c r="D32" t="n">
-        <v>27.6275</v>
+        <v>276275</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -1114,7 +1114,7 @@
         <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>29.6594</v>
+        <v>296594</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
